--- a/question-1.xlsx
+++ b/question-1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>x1</t>
   </si>
@@ -78,13 +79,28 @@
   </si>
   <si>
     <t xml:space="preserve">to centroid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +108,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -193,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -204,6 +258,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,4 +1033,551 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13">
+        <f>SQRT(($C$15-C14)^2 + ($D$15-D14)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <f>SQRT(($C$16-C14)^2 + ($D$16-D14)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <f>SQRT(($C$17-C14)^2 + ($D$17-D14)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="13">
+        <f>SQRT(($C$18-C14)^2 + ($D$18-D14)^2)</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="H3" s="13">
+        <f>SQRT(($C$19-C14)^2 + ($D$19-D14)^2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <f>SQRT(($C$14-C15)^2 + ($D$14-D15)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E8" si="0">SQRT(($C$16-C15)^2 + ($D$16-D15)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:F8" si="1">SQRT(($C$17-C15)^2 + ($D$17-D15)^2)</f>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G8" si="2">SQRT(($C$18-C15)^2 + ($D$18-D15)^2)</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H8" si="3">SQRT(($C$19-C15)^2 + ($D$19-D15)^2)</f>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C8" si="4">SQRT(($C$14-C16)^2 + ($D$14-D16)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D8" si="5">SQRT(($C$15-C16)^2 + ($D$15-D16)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="1"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="2"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="3"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="5"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="4"/>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="5"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="3"/>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="5"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>MAX(C3:H8)</f>
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <f>(C16+C18)/2</f>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>(D16-D18)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5">
+        <f>C21</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
+        <f>D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="15">
+        <f>SQRT(($C$25-C24)^2 + ($D$25-D24)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <f>SQRT(($C$26-C24)^2 + ($D$26-D24)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F31" s="14">
+        <f>SQRT(($C$27-C24)^2 + ($D$27-D24)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="14">
+        <f>SQRT(($C$28-C24)^2 + ($D$28-D24)^2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15">
+        <f>SQRT(($C$24-C25)^2 + ($D$24-D25)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" ref="D32:D35" si="6">SQRT(($C$25-C25)^2 + ($D$25-D25)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" ref="E32:E35" si="7">SQRT(($C$26-C25)^2 + ($D$26-D25)^2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" ref="F32:F35" si="8">SQRT(($C$27-C25)^2 + ($D$27-D25)^2)</f>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" ref="G32:G35" si="9">SQRT(($C$28-C25)^2 + ($D$28-D25)^2)</f>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" ref="C33:C35" si="10">SQRT(($C$24-C26)^2 + ($D$24-D26)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="6"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="6"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="6"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="7"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <f>MAX(C31:G35)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/question-1.xlsx
+++ b/question-1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>x1</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>C146</t>
+  </si>
+  <si>
+    <t>1,4,6</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>C235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obse </t>
+  </si>
+  <si>
+    <t>2,3,5</t>
   </si>
 </sst>
 </file>
@@ -247,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -264,6 +279,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,27 +1445,27 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="11">
+        <v>4</v>
+      </c>
+      <c r="G30" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
       <c r="C31" s="10"/>
@@ -1468,7 +1487,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="11">
         <v>2</v>
       </c>
       <c r="C32" s="15">
@@ -1493,7 +1512,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="15">
@@ -1518,7 +1537,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B34" s="11">
         <v>4</v>
       </c>
       <c r="C34" s="15">
@@ -1543,7 +1562,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B35" s="11">
         <v>6</v>
       </c>
       <c r="C35" s="15">
@@ -1571,9 +1590,194 @@
       <c r="B37" t="s">
         <v>22</v>
       </c>
+      <c r="C37">
+        <f>(C24+C27+C28)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D37" s="15">
+        <f>(D24+D27+D28)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
       <c r="H37">
         <f>MAX(C31:G35)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5">
+        <f>C37</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D40" s="16">
+        <f>D37</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>35</v>
+      </c>
+      <c r="C42" s="8">
+        <f>C21</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
+        <f>D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="11">
+        <v>146</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>146</v>
+      </c>
+      <c r="C45" s="17">
+        <f>SQRT(($C$40-C40)^2 + ($D$40-D40)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>SQRT(($C$41-C40)^2 + ($D$41-D40)^2)</f>
+        <v>2.6874192494328502</v>
+      </c>
+      <c r="E45">
+        <f>SQRT(($C$42-C40)^2 + ($D$42-D40)^2)</f>
+        <v>0.74535599249993001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>2</v>
+      </c>
+      <c r="C46" s="15">
+        <f>SQRT(($C$40-C41)^2 + ($D$40-D41)^2)</f>
+        <v>2.6874192494328502</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" ref="D46:D47" si="11">SQRT(($C$41-C41)^2 + ($D$41-D41)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" ref="E46:E47" si="12">SQRT(($C$42-C41)^2 + ($D$42-D41)^2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>35</v>
+      </c>
+      <c r="C47" s="15">
+        <f>SQRT(($C$40-C42)^2 + ($D$40-D42)^2)</f>
+        <v>0.74535599249993001</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" si="11"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="13">
+        <f>MAX(C45:E47)</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <f>(C41+C42)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>(D41+D42)/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="5">
+        <f>C40</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D54" s="16">
+        <f>D40</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="8">
+        <f>C51</f>
+        <v>2</v>
+      </c>
+      <c r="D55" s="9">
+        <f>D51</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
